--- a/Planilha_Output.xlsx
+++ b/Planilha_Output.xlsx
@@ -7,17 +7,21 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Num. Famliasfx_rfpc" sheetId="1" r:id="rId1"/>
-    <sheet name="Num. Pessoasfx_rfpc" sheetId="2" r:id="rId2"/>
-    <sheet name="Num. Famliasmarc_sit_rua" sheetId="3" r:id="rId3"/>
-    <sheet name="Num. Pessoasmarc_sit_rua" sheetId="4" r:id="rId4"/>
+    <sheet name="Num. Famliasfx_rfpcAC" sheetId="1" r:id="rId1"/>
+    <sheet name="Num. Pessoasfx_rfpcAC" sheetId="2" r:id="rId2"/>
+    <sheet name="Num. Famliasmarc_sit_ruaAC" sheetId="3" r:id="rId3"/>
+    <sheet name="Num. Pessoasmarc_sit_ruaAC" sheetId="4" r:id="rId4"/>
+    <sheet name="Num. Famliasfx_rfpcAP" sheetId="5" r:id="rId5"/>
+    <sheet name="Num. Pessoasfx_rfpcAP" sheetId="6" r:id="rId6"/>
+    <sheet name="Num. Famliasmarc_sit_ruaAP" sheetId="7" r:id="rId7"/>
+    <sheet name="Num. Pessoasmarc_sit_ruaAP" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="48">
   <si>
     <t>Faixa da renda familiar per capita</t>
   </si>
@@ -113,6 +117,54 @@
   </si>
   <si>
     <t>Sim</t>
+  </si>
+  <si>
+    <t>AP-Amapá</t>
+  </si>
+  <si>
+    <t>AP-Calçoene</t>
+  </si>
+  <si>
+    <t>AP-Cutias</t>
+  </si>
+  <si>
+    <t>AP-Ferreira Gomes</t>
+  </si>
+  <si>
+    <t>AP-Itaubal</t>
+  </si>
+  <si>
+    <t>AP-Laranjal do Jari</t>
+  </si>
+  <si>
+    <t>AP-Macapá</t>
+  </si>
+  <si>
+    <t>AP-Mazagão</t>
+  </si>
+  <si>
+    <t>AP-Oiapoque</t>
+  </si>
+  <si>
+    <t>AP-Pedra Branca do Amapari</t>
+  </si>
+  <si>
+    <t>AP-Porto Grande</t>
+  </si>
+  <si>
+    <t>AP-Pracuúba</t>
+  </si>
+  <si>
+    <t>AP-Santana</t>
+  </si>
+  <si>
+    <t>AP-Serra do Navio</t>
+  </si>
+  <si>
+    <t>AP-Tartarugalzinho</t>
+  </si>
+  <si>
+    <t>AP-Vitória do Jari</t>
   </si>
 </sst>
 </file>
@@ -2410,4 +2462,1468 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>2191</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>167</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>1412</v>
+      </c>
+      <c r="C5">
+        <v>152</v>
+      </c>
+      <c r="D5">
+        <v>223</v>
+      </c>
+      <c r="E5">
+        <v>249</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>875</v>
+      </c>
+      <c r="C6">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>118</v>
+      </c>
+      <c r="E6">
+        <v>87</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>779</v>
+      </c>
+      <c r="C7">
+        <v>120</v>
+      </c>
+      <c r="D7">
+        <v>211</v>
+      </c>
+      <c r="E7">
+        <v>149</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>1706</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>6412</v>
+      </c>
+      <c r="C9">
+        <v>637</v>
+      </c>
+      <c r="D9">
+        <v>897</v>
+      </c>
+      <c r="E9">
+        <v>951</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>8897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>31883</v>
+      </c>
+      <c r="C10">
+        <v>12645</v>
+      </c>
+      <c r="D10">
+        <v>14838</v>
+      </c>
+      <c r="E10">
+        <v>13561</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>72927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>4975</v>
+      </c>
+      <c r="C11">
+        <v>67</v>
+      </c>
+      <c r="D11">
+        <v>246</v>
+      </c>
+      <c r="E11">
+        <v>520</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>5808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>1276</v>
+      </c>
+      <c r="C12">
+        <v>1375</v>
+      </c>
+      <c r="D12">
+        <v>1007</v>
+      </c>
+      <c r="E12">
+        <v>1022</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>2263</v>
+      </c>
+      <c r="C13">
+        <v>66</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+      <c r="E13">
+        <v>325</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>2790</v>
+      </c>
+      <c r="C14">
+        <v>272</v>
+      </c>
+      <c r="D14">
+        <v>359</v>
+      </c>
+      <c r="E14">
+        <v>370</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>807</v>
+      </c>
+      <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>35</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>16023</v>
+      </c>
+      <c r="C16">
+        <v>926</v>
+      </c>
+      <c r="D16">
+        <v>3188</v>
+      </c>
+      <c r="E16">
+        <v>4737</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>24874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>909</v>
+      </c>
+      <c r="C17">
+        <v>68</v>
+      </c>
+      <c r="D17">
+        <v>105</v>
+      </c>
+      <c r="E17">
+        <v>140</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>1873</v>
+      </c>
+      <c r="C18">
+        <v>190</v>
+      </c>
+      <c r="D18">
+        <v>299</v>
+      </c>
+      <c r="E18">
+        <v>278</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>2787</v>
+      </c>
+      <c r="C19">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>157</v>
+      </c>
+      <c r="E19">
+        <v>365</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>3337</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>5937</v>
+      </c>
+      <c r="C4">
+        <v>102</v>
+      </c>
+      <c r="D4">
+        <v>151</v>
+      </c>
+      <c r="E4">
+        <v>182</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>6372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>5089</v>
+      </c>
+      <c r="C5">
+        <v>493</v>
+      </c>
+      <c r="D5">
+        <v>619</v>
+      </c>
+      <c r="E5">
+        <v>305</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>6506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>3417</v>
+      </c>
+      <c r="C6">
+        <v>303</v>
+      </c>
+      <c r="D6">
+        <v>417</v>
+      </c>
+      <c r="E6">
+        <v>111</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>3118</v>
+      </c>
+      <c r="C7">
+        <v>413</v>
+      </c>
+      <c r="D7">
+        <v>645</v>
+      </c>
+      <c r="E7">
+        <v>248</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>5337</v>
+      </c>
+      <c r="C8">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>114</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>19336</v>
+      </c>
+      <c r="C9">
+        <v>1786</v>
+      </c>
+      <c r="D9">
+        <v>2346</v>
+      </c>
+      <c r="E9">
+        <v>1225</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>24693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>111290</v>
+      </c>
+      <c r="C10">
+        <v>37524</v>
+      </c>
+      <c r="D10">
+        <v>38962</v>
+      </c>
+      <c r="E10">
+        <v>18546</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>206322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>17718</v>
+      </c>
+      <c r="C11">
+        <v>301</v>
+      </c>
+      <c r="D11">
+        <v>694</v>
+      </c>
+      <c r="E11">
+        <v>654</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>19367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>5571</v>
+      </c>
+      <c r="C12">
+        <v>4558</v>
+      </c>
+      <c r="D12">
+        <v>2526</v>
+      </c>
+      <c r="E12">
+        <v>1384</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>14039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>7070</v>
+      </c>
+      <c r="C13">
+        <v>227</v>
+      </c>
+      <c r="D13">
+        <v>333</v>
+      </c>
+      <c r="E13">
+        <v>397</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>8027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>9433</v>
+      </c>
+      <c r="C14">
+        <v>752</v>
+      </c>
+      <c r="D14">
+        <v>933</v>
+      </c>
+      <c r="E14">
+        <v>467</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>11585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>2398</v>
+      </c>
+      <c r="C15">
+        <v>93</v>
+      </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>49940</v>
+      </c>
+      <c r="C16">
+        <v>2845</v>
+      </c>
+      <c r="D16">
+        <v>6980</v>
+      </c>
+      <c r="E16">
+        <v>5363</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>65128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>2662</v>
+      </c>
+      <c r="C17">
+        <v>224</v>
+      </c>
+      <c r="D17">
+        <v>257</v>
+      </c>
+      <c r="E17">
+        <v>174</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>7876</v>
+      </c>
+      <c r="C18">
+        <v>756</v>
+      </c>
+      <c r="D18">
+        <v>975</v>
+      </c>
+      <c r="E18">
+        <v>429</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>10036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>9563</v>
+      </c>
+      <c r="C19">
+        <v>143</v>
+      </c>
+      <c r="D19">
+        <v>420</v>
+      </c>
+      <c r="E19">
+        <v>408</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>10534</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>2423</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>2036</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>1136</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>1259</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>1856</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>8897</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>8897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>72889</v>
+      </c>
+      <c r="C10">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>72930</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>5808</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>5808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>4679</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>2774</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>3791</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>903</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>24871</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>24874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>1222</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>2640</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>3337</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>3337</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>6372</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>6372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>6506</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>6506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>4248</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>4424</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>5590</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>24693</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>24693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>206276</v>
+      </c>
+      <c r="C10">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>206322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>19367</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>19367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>14037</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>14039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>8026</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>8027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>11585</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>11585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>2621</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>65122</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>65128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>3317</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>10035</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>10036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>10534</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>10534</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>